--- a/resultados/comportamentoMMQ_preliminares.xlsx
+++ b/resultados/comportamentoMMQ_preliminares.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Logaritmo</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/resultados/comportamentoMMQ_preliminares.xlsx
+++ b/resultados/comportamentoMMQ_preliminares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,21 +613,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5294503419175284</v>
+        <v>0.4931908928857473</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>exponencial</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>692143731.2758074</v>
+        <v>0.01703225011802164</v>
       </c>
       <c r="H6" t="n">
-        <v>133814740834.1212</v>
+        <v>796347797464796.9</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,21 +645,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5831401112161171</v>
+        <v>0.4931908928857473</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Logarítmica</t>
+          <t>geometrico</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11036118571.12941</v>
+        <v>1.017178125910888</v>
       </c>
       <c r="H7" t="n">
-        <v>118182718901.0582</v>
+        <v>796347797464796.9</v>
       </c>
     </row>
     <row r="8">
@@ -677,21 +677,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5280438682761507</v>
+        <v>0.5294503419175284</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08229614451680085</v>
+        <v>692143731.2758074</v>
       </c>
       <c r="H8" t="n">
-        <v>117794199799.0799</v>
+        <v>133814740834.1212</v>
       </c>
     </row>
     <row r="9">
@@ -709,21 +709,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6490167962186364</v>
+        <v>0.5831401112161171</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>Logarítmica</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>123392169741.8721</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1994965117.806948</v>
+        <v>11036118571.12941</v>
       </c>
       <c r="H9" t="n">
-        <v>-27719603.96874766</v>
+        <v>118182718901.0582</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,21 +741,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4885746488032252</v>
+        <v>0.5280438682761507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>Potencial</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>219.4747775725567</v>
+        <v>0.08229614451680085</v>
       </c>
       <c r="H10" t="n">
-        <v>13764.49007860993</v>
+        <v>117794199799.0799</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,21 +773,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8401100583727596</v>
+        <v>0.6490167962186364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Logarítmica</t>
+          <t>Polinomial</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>123392169741.8721</v>
       </c>
       <c r="G11" t="n">
-        <v>2803.434850274383</v>
+        <v>1994965117.806948</v>
       </c>
       <c r="H11" t="n">
-        <v>10149.57178602087</v>
+        <v>-27719603.96874766</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,21 +805,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7889603466148023</v>
+        <v>0.4485553826919931</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>exponencial</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2062314795907771</v>
+        <v>0.004992364622128191</v>
       </c>
       <c r="H12" t="n">
-        <v>10119.19263900779</v>
+        <v>132884033415.6773</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,21 +837,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.826742321348155</v>
+        <v>0.4485553826919931</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Polinomial</t>
+          <t>geometrico</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10092.92248531329</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>953.7882962318822</v>
+        <v>1.005004847238334</v>
       </c>
       <c r="H13" t="n">
-        <v>-25.32115581583882</v>
+        <v>132884033415.6773</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5761724597010675</v>
+        <v>0.4885746488032252</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>91053.99062202158</v>
+        <v>219.4747775725567</v>
       </c>
       <c r="H14" t="n">
-        <v>3675191.836876972</v>
+        <v>13764.49007860993</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.894735954149553</v>
+        <v>0.8401100583727596</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1450185.275440996</v>
+        <v>2803.434850274383</v>
       </c>
       <c r="H15" t="n">
-        <v>1521192.931126074</v>
+        <v>10149.57178602087</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8412272214422285</v>
+        <v>0.7889603466148023</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3838113581365909</v>
+        <v>0.2062314795907771</v>
       </c>
       <c r="H16" t="n">
-        <v>1834514.074005418</v>
+        <v>10119.19263900779</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9072859910489192</v>
+        <v>0.826742321348155</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1843514.666527648</v>
+        <v>10092.92248531329</v>
       </c>
       <c r="G17" t="n">
-        <v>365805.5661744202</v>
+        <v>953.7882962318822</v>
       </c>
       <c r="H17" t="n">
-        <v>-7044.912193651247</v>
+        <v>-25.32115581583882</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,21 +997,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1799118661536922</v>
+        <v>0.4270603371810137</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Linear</t>
+          <t>exponencial</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5105.161689910932</v>
+        <v>0.01557646008503169</v>
       </c>
       <c r="H18" t="n">
-        <v>3156838.640484821</v>
+        <v>13311.26943909908</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3359729810726882</v>
+        <v>0.4270603371810137</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Logarítmica</t>
+          <t>geometrico</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>187121.6321100817</v>
+        <v>1.015698405475876</v>
       </c>
       <c r="H19" t="n">
-        <v>2725250.838228574</v>
+        <v>13311.26943909908</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,21 +1061,21 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2848344597295296</v>
+        <v>0.5761724597010675</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Potencial</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07472028523371438</v>
+        <v>91053.99062202158</v>
       </c>
       <c r="H20" t="n">
-        <v>2587061.956309922</v>
+        <v>3675191.836876972</v>
       </c>
     </row>
     <row r="21">
@@ -1084,30 +1084,350 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.894735954149553</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Logarítmica</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1450185.275440996</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1521192.931126074</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8412272214422285</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Potencial</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3838113581365909</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1834514.074005418</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9072859910489192</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Polinomial</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1843514.666527648</v>
+      </c>
+      <c r="G23" t="n">
+        <v>365805.5661744202</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-7044.912193651247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4784810269161754</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>exponencial</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02264854017930155</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3337235.221392098</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4784810269161754</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>geometrico</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.022906965664289</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3337235.221392098</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>matrizes/slot_artigo/bcsstk27.mtx</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1799118661536922</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5105.161689910932</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3156838.640484821</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3359729810726882</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Logarítmica</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>187121.6321100817</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2725250.838228574</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2848344597295296</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Potencial</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.07472028523371438</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2587061.956309922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>0.3287734861010778</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Polinomial</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>2892911.301977509</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>23307.04710420833</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>-211.6498303988067</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1348540617968211</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>exponencial</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.001916823164564943</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3089770.106837459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1348540617968211</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>geometrico</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.001918661444452</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3089770.106837459</v>
       </c>
     </row>
   </sheetData>
